--- a/columns.xlsx
+++ b/columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hikmet\Documents\Git\DSCP\exoplanet-habitability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B410CFF4-4A14-4AAD-B9A5-2C6B7E3DE692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2949C2AA-96EA-4539-84FD-703DD329A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="244">
   <si>
     <t>Column</t>
   </si>
@@ -722,28 +722,10 @@
     <t>No need for the position of the given planet in the visible sky from Earth</t>
   </si>
   <si>
-    <t>No need for last update</t>
-  </si>
-  <si>
     <t>No need for publication date</t>
   </si>
   <si>
     <t>No need for release date</t>
-  </si>
-  <si>
-    <r>
-      <t>Star based variables,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> could be used for a further analysis</t>
-    </r>
   </si>
   <si>
     <r>
@@ -806,6 +788,39 @@
       </rPr>
       <t>, could be used to identify stars that have habitable planets later</t>
     </r>
+  </si>
+  <si>
+    <t>Either Fe/H or M/H, in this case they will be regarded as one for simplicity.</t>
+  </si>
+  <si>
+    <t>Temperature the star would be emitting if it was a black body</t>
+  </si>
+  <si>
+    <t>Radius of star with respect to sun</t>
+  </si>
+  <si>
+    <t>Mass of star with respect to sun</t>
+  </si>
+  <si>
+    <t>Iron to Hydrogen atom ratio</t>
+  </si>
+  <si>
+    <t>Surface gravity of the star</t>
+  </si>
+  <si>
+    <t>Stellar classification based on color, ultraviolet, blue and visible</t>
+  </si>
+  <si>
+    <t>Stellar classification, further reading here:  http://astroweb.case.edu/ssm/ASTR620/mags.html</t>
+  </si>
+  <si>
+    <t>Stellar classification, these three mean the same thing with different methods, I guess?</t>
+  </si>
+  <si>
+    <t>Limit flag, dropped</t>
+  </si>
+  <si>
+    <t>Drop after comparing duplicate entries, preferably the most recent is kept</t>
   </si>
 </sst>
 </file>
@@ -1685,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1774,7 @@
       </c>
       <c r="G3" s="25">
         <f>COUNTIF(C2:C93,1) + COUNTIF(C2:C93,2)+ COUNTIF(C2:C93,3)</f>
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J3" s="30">
         <v>-1</v>
@@ -1787,7 +1802,7 @@
       </c>
       <c r="G4" s="27">
         <f>COUNTIF(C2:C93,4) + COUNTIF(C2:C93,5)+ COUNTIF(C2:C93,0)</f>
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="J4" s="31">
         <v>0</v>
@@ -1942,920 +1957,920 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="C12" s="10">
-        <v>2</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>233</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C13" s="10">
-        <v>2</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>234</v>
+        <v>1</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C14" s="10">
-        <v>3</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>232</v>
+        <v>1</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C15" s="10">
-        <v>3</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>232</v>
+        <v>1</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="C16" s="10">
-        <v>3</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>232</v>
+        <v>1</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="C17" s="10">
-        <v>3</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>232</v>
+        <v>1</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="C18" s="10">
-        <v>3</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>232</v>
+        <v>1</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="C19" s="10">
-        <v>3</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>232</v>
+        <v>1</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="C20" s="10">
-        <v>3</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>232</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="C21" s="10">
-        <v>3</v>
-      </c>
-      <c r="D21" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C22" s="10">
-        <v>4</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>209</v>
+        <v>3</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C23" s="10">
-        <v>4</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>209</v>
+        <v>3</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="C24" s="10">
-        <v>4</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>210</v>
+        <v>3</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C25" s="10">
-        <v>4</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>211</v>
+        <v>3</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="C26" s="10">
-        <v>4</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>211</v>
+        <v>3</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="C27" s="10">
-        <v>4</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>210</v>
+        <v>3</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C28" s="10">
-        <v>4</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>212</v>
+        <v>3</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="C29" s="10">
-        <v>4</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>213</v>
+        <v>3</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="C30" s="10">
-        <v>4</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>213</v>
+        <v>3</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="C31" s="10">
-        <v>4</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>212</v>
+        <v>3</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C32" s="10">
-        <v>4</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>215</v>
+        <v>3</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C33" s="10">
-        <v>4</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>214</v>
+        <v>3</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="C34" s="10">
-        <v>4</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>214</v>
+        <v>3</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="C35" s="10">
-        <v>4</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>217</v>
+        <v>3</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>72</v>
+        <v>176</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="C36" s="10">
-        <v>4</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>216</v>
+        <v>3</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="C37" s="10">
-        <v>4</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>218</v>
+        <v>3</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C38" s="10">
-        <v>4</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>219</v>
+        <v>3</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="C39" s="10">
-        <v>4</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>220</v>
+        <v>3</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C40" s="10">
-        <v>4</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>220</v>
+        <v>3</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="C41" s="10">
-        <v>4</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>221</v>
+        <v>3</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C42" s="10">
-        <v>5</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>231</v>
+        <v>3</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C43" s="10">
-        <v>5</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>231</v>
+        <v>3</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="C44" s="10">
-        <v>5</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>231</v>
+        <v>3</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="C45" s="10">
-        <v>5</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>231</v>
+        <v>3</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="C46" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="C47" s="10">
-        <v>5</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="C48" s="10">
-        <v>5</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="C49" s="10">
-        <v>5</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C50" s="10">
-        <v>5</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C51" s="10">
-        <v>5</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="C52" s="10">
-        <v>5</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C53" s="10">
-        <v>5</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="C54" s="10">
-        <v>5</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="C55" s="10">
-        <v>5</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D55" s="42" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C56" s="10">
-        <v>5</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C57" s="10">
-        <v>5</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="C58" s="10">
-        <v>5</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="C59" s="10">
-        <v>5</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="C60" s="10">
-        <v>5</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D60" s="42" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="C61" s="10">
-        <v>5</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D61" s="42" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="C62" s="10">
-        <v>5</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D62" s="42" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="C63" s="10">
-        <v>5</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="C64" s="10">
-        <v>5</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="C65" s="10">
-        <v>5</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="C66" s="10">
-        <v>5</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>231</v>
+        <v>4</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="C67" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="C68" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="C69" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C70" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="C71" s="10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="C72" s="10">
         <v>0</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C73" s="10">
         <v>0</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74" s="10">
         <v>0</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C75" s="10">
         <v>0</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C76" s="10">
         <v>0</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C77" s="10">
         <v>0</v>
@@ -2866,24 +2881,24 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C78" s="10">
         <v>0</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="C79" s="10">
         <v>0</v>
@@ -2894,10 +2909,10 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C80" s="10">
         <v>0</v>
@@ -2908,24 +2923,24 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C81" s="10">
         <v>0</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C82" s="10">
         <v>0</v>
@@ -2936,10 +2951,10 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C83" s="10">
         <v>0</v>
@@ -2950,10 +2965,10 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C84" s="10">
         <v>0</v>
@@ -2964,16 +2979,16 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C85" s="10">
         <v>0</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2987,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3001,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3015,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3029,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3043,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3057,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3071,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3085,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D93" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
-      <sortCondition ref="C2:C93" customList="1,2,3,4,5,0,-1"/>
+      <sortCondition ref="C2:C93" customList="1,2,3,4,5,0"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">

--- a/columns.xlsx
+++ b/columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hikmet\Documents\Git\DSCP\exoplanet-habitability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2949C2AA-96EA-4539-84FD-703DD329A7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA1C435-5543-4BC3-A773-EC96DC0562DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="243">
   <si>
     <t>Column</t>
   </si>
@@ -665,9 +665,6 @@
     <t>Unrevised cols:</t>
   </si>
   <si>
-    <t>Missing 87.165%</t>
-  </si>
-  <si>
     <t>Missing 70.245%</t>
   </si>
   <si>
@@ -675,15 +672,6 @@
   </si>
   <si>
     <t>Missing 85.565% - This could have been really useful</t>
-  </si>
-  <si>
-    <t>Missing 86.913% - This could have been really useful</t>
-  </si>
-  <si>
-    <t>Missing 86.932%</t>
-  </si>
-  <si>
-    <t>Missing  85.568%</t>
   </si>
   <si>
     <t>Missing 85.565%</t>
@@ -821,6 +809,36 @@
   </si>
   <si>
     <t>Drop after comparing duplicate entries, preferably the most recent is kept</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Could be reduced while creating to model,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> error margin</t>
+    </r>
+  </si>
+  <si>
+    <t>Planet mass with respect to Jupiter</t>
+  </si>
+  <si>
+    <t>Planet mass with respect to Earth</t>
   </si>
 </sst>
 </file>
@@ -1243,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1326,6 +1344,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1700,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:A72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1774,7 +1795,7 @@
       </c>
       <c r="G3" s="25">
         <f>COUNTIF(C2:C93,1) + COUNTIF(C2:C93,2)+ COUNTIF(C2:C93,3)</f>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J3" s="30">
         <v>-1</v>
@@ -1802,7 +1823,7 @@
       </c>
       <c r="G4" s="27">
         <f>COUNTIF(C2:C93,4) + COUNTIF(C2:C93,5)+ COUNTIF(C2:C93,0)</f>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J4" s="31">
         <v>0</v>
@@ -1966,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1980,7 +2001,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1994,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2008,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2022,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2036,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2050,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2064,567 +2085,567 @@
         <v>1</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C20" s="10">
-        <v>2</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>231</v>
+        <v>1</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>232</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C22" s="10">
-        <v>3</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>230</v>
+        <v>2</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="C23" s="10">
-        <v>3</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>230</v>
+        <v>2</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C31" s="10">
         <v>3</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C32" s="10">
         <v>3</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C33" s="10">
         <v>3</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C37" s="10">
         <v>3</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="C38" s="10">
         <v>3</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c r="C39" s="10">
         <v>3</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C40" s="10">
         <v>3</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C41" s="10">
         <v>3</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C42" s="10">
         <v>3</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="C43" s="10">
         <v>3</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="C44" s="10">
         <v>3</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="C45" s="10">
         <v>3</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C46" s="10">
         <v>3</v>
       </c>
-      <c r="D46" s="20" t="s">
-        <v>243</v>
+      <c r="D46" s="43" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C47" s="10">
-        <v>4</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>209</v>
+        <v>3</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="C48" s="10">
-        <v>4</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>209</v>
+        <v>3</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C49" s="10">
-        <v>4</v>
-      </c>
-      <c r="D49" s="42" t="s">
-        <v>210</v>
+        <v>3</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C50" s="10">
-        <v>4</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>211</v>
+        <v>3</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C51" s="10">
-        <v>4</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>211</v>
+        <v>3</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C52" s="10">
-        <v>4</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>210</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C53" s="10">
-        <v>4</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>212</v>
+        <v>3</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C54" s="10">
-        <v>4</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>213</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C55" s="10">
         <v>4</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C56" s="10">
         <v>4</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C57" s="10">
         <v>4</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C58" s="10">
         <v>4</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C59" s="10">
         <v>4</v>
       </c>
       <c r="D59" s="42" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2638,7 +2659,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2652,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2666,7 +2687,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2680,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2694,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2708,7 +2729,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2722,7 +2743,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="42" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2736,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2750,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2764,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2778,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2792,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2806,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2820,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2834,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2848,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2862,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2876,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2890,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2904,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2918,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2932,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2946,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2960,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2974,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2988,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3002,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3016,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3030,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3044,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3058,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3072,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3086,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3100,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/columns.xlsx
+++ b/columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hikmet\Documents\Git\DSCP\exoplanet-habitability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA1C435-5543-4BC3-A773-EC96DC0562DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2DCBA2-4127-42B6-B39B-4CF98847A948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="256">
   <si>
     <t>Column</t>
   </si>
@@ -665,19 +665,10 @@
     <t>Unrevised cols:</t>
   </si>
   <si>
-    <t>Missing 70.245%</t>
-  </si>
-  <si>
     <t>Missing 72.020%</t>
   </si>
   <si>
-    <t>Missing 85.565% - This could have been really useful</t>
-  </si>
-  <si>
     <t>Missing 85.565%</t>
-  </si>
-  <si>
-    <t>Missing 85.568%</t>
   </si>
   <si>
     <t>Missing 92.074%</t>
@@ -839,6 +830,54 @@
   </si>
   <si>
     <t>Planet mass with respect to Earth</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err1</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err2</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err3</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err4</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err5</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err6</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err7</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err8</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err9</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err10</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err11</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err12</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err13</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err14</t>
+  </si>
+  <si>
+    <t>Redundant error margin, essentially negative err15</t>
+  </si>
+  <si>
+    <t>Planet radius with respect to Jupiter</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1761,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1834,7 @@
       </c>
       <c r="G3" s="25">
         <f>COUNTIF(C2:C93,1) + COUNTIF(C2:C93,2)+ COUNTIF(C2:C93,3)</f>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J3" s="30">
         <v>-1</v>
@@ -1823,7 +1862,7 @@
       </c>
       <c r="G4" s="27">
         <f>COUNTIF(C2:C93,4) + COUNTIF(C2:C93,5)+ COUNTIF(C2:C93,0)</f>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J4" s="31">
         <v>0</v>
@@ -1987,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2001,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2015,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2029,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2043,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2057,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2071,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2085,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2099,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2113,63 +2152,63 @@
         <v>1</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C22" s="10">
-        <v>2</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>227</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="C24" s="10">
-        <v>3</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>226</v>
+        <v>2</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2183,413 +2222,413 @@
         <v>3</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C31" s="10">
         <v>3</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="C32" s="10">
         <v>3</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="C33" s="10">
         <v>3</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C37" s="10">
         <v>3</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>226</v>
+      <c r="D37" s="20" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="C38" s="10">
         <v>3</v>
       </c>
-      <c r="D38" s="43" t="s">
-        <v>226</v>
+      <c r="D38" s="41" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="C39" s="10">
         <v>3</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>226</v>
+      <c r="D39" s="41" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C40" s="10">
         <v>3</v>
       </c>
-      <c r="D40" s="43" t="s">
-        <v>226</v>
+      <c r="D40" s="41" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="C41" s="10">
-        <v>3</v>
-      </c>
-      <c r="D41" s="43" t="s">
-        <v>226</v>
+        <v>4</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="C42" s="10">
-        <v>3</v>
-      </c>
-      <c r="D42" s="43" t="s">
-        <v>226</v>
+        <v>4</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C43" s="10">
-        <v>3</v>
-      </c>
-      <c r="D43" s="43" t="s">
-        <v>226</v>
+        <v>4</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C44" s="10">
-        <v>3</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>226</v>
+        <v>4</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C45" s="10">
-        <v>3</v>
-      </c>
-      <c r="D45" s="43" t="s">
-        <v>226</v>
+        <v>4</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C46" s="10">
-        <v>3</v>
-      </c>
-      <c r="D46" s="43" t="s">
-        <v>226</v>
+        <v>4</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C47" s="10">
-        <v>3</v>
-      </c>
-      <c r="D47" s="43" t="s">
-        <v>226</v>
+        <v>4</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C48" s="10">
-        <v>3</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>239</v>
+        <v>4</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C49" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C50" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C51" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="C52" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C53" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C54" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C55" s="10">
         <v>4</v>
       </c>
-      <c r="D55" s="42" t="s">
-        <v>209</v>
+      <c r="D55" s="41" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2603,7 +2642,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2617,29 +2656,29 @@
         <v>4</v>
       </c>
       <c r="D57" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C58" s="10">
         <v>4</v>
       </c>
       <c r="D58" s="42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C59" s="10">
         <v>4</v>
@@ -2650,100 +2689,100 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C60" s="10">
         <v>4</v>
       </c>
       <c r="D60" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C61" s="10">
         <v>4</v>
       </c>
       <c r="D61" s="42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C62" s="10">
         <v>4</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C63" s="10">
         <v>4</v>
       </c>
       <c r="D63" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C64" s="10">
-        <v>4</v>
-      </c>
-      <c r="D64" s="42" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C65" s="10">
-        <v>4</v>
-      </c>
-      <c r="D65" s="42" t="s">
-        <v>216</v>
+        <v>0</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C66" s="10">
-        <v>4</v>
-      </c>
-      <c r="D66" s="42" t="s">
-        <v>217</v>
+        <v>0</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2757,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2771,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2785,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2799,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2813,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2827,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2841,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2855,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2869,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2883,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2897,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2911,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2925,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2939,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2953,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2967,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2981,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2995,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3009,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3023,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3037,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3051,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3065,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3079,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3093,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3107,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3121,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/columns.xlsx
+++ b/columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hikmet\Documents\Git\DSCP\exoplanet-habitability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2DCBA2-4127-42B6-B39B-4CF98847A948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D887ADB-66EB-41D4-B778-273FC704B74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="242">
   <si>
     <t>Column</t>
   </si>
@@ -833,48 +833,6 @@
   </si>
   <si>
     <t>Redundant error margin, essentially negative err1</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err2</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err3</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err4</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err5</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err6</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err7</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err8</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err9</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err10</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err11</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err12</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err13</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err14</t>
-  </si>
-  <si>
-    <t>Redundant error margin, essentially negative err15</t>
   </si>
   <si>
     <t>Planet radius with respect to Jupiter</t>
@@ -1760,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2446,7 +2404,7 @@
         <v>4</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2460,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2474,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2488,7 +2446,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2502,7 +2460,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2516,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2530,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2544,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2558,7 +2516,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2572,7 +2530,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2586,7 +2544,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2600,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2614,7 +2572,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2628,7 +2586,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2745,24 +2703,24 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="C64" s="10">
         <v>0</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C65" s="10">
         <v>0</v>
@@ -2773,10 +2731,10 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C66" s="10">
         <v>0</v>
@@ -2787,10 +2745,10 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="C67" s="10">
         <v>0</v>
@@ -2801,10 +2759,10 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C68" s="10">
         <v>0</v>
@@ -2815,10 +2773,10 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C69" s="10">
         <v>0</v>
@@ -2829,10 +2787,10 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C70" s="10">
         <v>0</v>
@@ -2843,16 +2801,16 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" s="10">
         <v>0</v>
       </c>
       <c r="D71" s="20" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2871,296 +2829,296 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C73" s="10">
         <v>0</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C74" s="10">
         <v>0</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C75" s="10">
         <v>0</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="C76" s="10">
         <v>0</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C77" s="10">
         <v>0</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="C78" s="10">
         <v>0</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C79" s="10">
         <v>0</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="C80" s="10">
         <v>0</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="C81" s="10">
         <v>0</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C82" s="10">
         <v>0</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C83" s="10">
+        <v>193</v>
+      </c>
+      <c r="C83" s="11">
         <v>0</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="C84" s="10">
         <v>0</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="C85" s="10">
         <v>0</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="C86" s="10">
         <v>0</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C87" s="11">
+        <v>149</v>
+      </c>
+      <c r="C87" s="10">
         <v>0</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="C88" s="10">
         <v>0</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="C89" s="10">
         <v>0</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="C90" s="10">
         <v>0</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C91" s="10">
         <v>0</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C92" s="10">
         <v>0</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="C93" s="10">
         <v>0</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3169,8 +3127,9 @@
       <sortCondition ref="C2:C93" customList="1,2,3,4,5,0"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D93">
-    <sortCondition ref="C2:C93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:D93">
+    <sortCondition ref="C64:C93"/>
+    <sortCondition ref="D64:D93"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C1:C93">
